--- a/test_hpso_vs_hpsov2.xlsx
+++ b/test_hpso_vs_hpsov2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20610" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>/</t>
   </si>
@@ -37,13 +32,27 @@
   <si>
     <t>delta</t>
   </si>
+  <si>
+    <t>ris. normalizzati</t>
+  </si>
+  <si>
+    <t>function#</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -71,8 +80,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,7 +380,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -374,15 +388,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -397,14 +411,14 @@
         <v>1140.9380000000001</v>
       </c>
       <c r="E1">
-        <v>107.904</v>
+        <v>112.254</v>
       </c>
       <c r="F1">
         <f>D1-E1</f>
-        <v>1033.0340000000001</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1028.6840000000002</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -418,8 +432,11 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>976231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -433,8 +450,11 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" s="3">
+        <v>148888000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -448,8 +468,11 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>1487.67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -464,14 +487,14 @@
         <v>156.34199999999998</v>
       </c>
       <c r="E5">
-        <v>36.154200000000003</v>
+        <v>49.576000000000001</v>
       </c>
       <c r="F5">
         <f t="shared" ref="F5:F28" si="1">D5-E5</f>
-        <v>120.18779999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>106.76599999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -486,14 +509,14 @@
         <v>120.76599999999996</v>
       </c>
       <c r="E6">
-        <v>12.2203</v>
+        <v>18.627500000000001</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>108.54569999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>102.13849999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -508,14 +531,14 @@
         <v>75.071000000000026</v>
       </c>
       <c r="E7">
-        <v>23.131</v>
+        <v>26.047699999999999</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>51.940000000000026</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>49.023300000000027</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -530,14 +553,14 @@
         <v>20.26400000000001</v>
       </c>
       <c r="E8">
-        <v>20.2925</v>
+        <v>20.293500000000002</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>-2.8499999999990422E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-2.9499999999991644E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -552,14 +575,15 @@
         <v>7.7089999999999463</v>
       </c>
       <c r="E9">
-        <v>5.0937900000000003</v>
+        <v>4.9602700000000004</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>2.6152099999999461</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.7487299999999459</v>
+      </c>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -574,14 +598,14 @@
         <v>192.26499999999999</v>
       </c>
       <c r="E10">
-        <v>18.577100000000002</v>
+        <v>14.639099999999999</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>173.68789999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>177.6259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -596,14 +620,14 @@
         <v>717.01099999999997</v>
       </c>
       <c r="E11">
-        <v>36.868499999999997</v>
+        <v>34.9313</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>680.14249999999993</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>682.0797</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -618,14 +642,14 @@
         <v>59.347000000000008</v>
       </c>
       <c r="E12">
-        <v>35.943399999999997</v>
+        <v>35.053600000000003</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>23.403600000000012</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24.293400000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
@@ -640,14 +664,14 @@
         <v>53.957999999999998</v>
       </c>
       <c r="E13">
-        <v>37.216799999999999</v>
+        <v>36.295900000000003</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>16.741199999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17.662099999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -662,14 +686,14 @@
         <v>1046.008</v>
       </c>
       <c r="E14">
-        <v>1194.69</v>
+        <v>1212.95</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>-148.68200000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-166.94200000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
@@ -684,14 +708,14 @@
         <v>1119.8699999999999</v>
       </c>
       <c r="E15">
-        <v>1247.8399999999999</v>
+        <v>1215.51</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>-127.97000000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-95.6400000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
@@ -706,11 +730,11 @@
         <v>0.71399999999999864</v>
       </c>
       <c r="E16">
-        <v>1.01925</v>
+        <v>1.06968</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>-0.30525000000000135</v>
+        <v>-0.35568000000000133</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -728,11 +752,11 @@
         <v>106.55799999999999</v>
       </c>
       <c r="E17">
-        <v>57.313099999999999</v>
+        <v>55.397300000000001</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>49.244899999999994</v>
+        <v>51.160699999999991</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -750,11 +774,11 @@
         <v>130.66200000000003</v>
       </c>
       <c r="E18">
-        <v>58.29</v>
+        <v>60.837899999999998</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>72.372000000000043</v>
+        <v>69.824100000000044</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -772,11 +796,11 @@
         <v>41.936000000000035</v>
       </c>
       <c r="E19">
-        <v>4.5923299999999996</v>
+        <v>4.5438999999999998</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>37.343670000000039</v>
+        <v>37.392100000000035</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -794,11 +818,11 @@
         <v>3.8569999999999709</v>
       </c>
       <c r="E20">
-        <v>2.93276</v>
+        <v>2.93919</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>0.92423999999997086</v>
+        <v>0.91780999999997093</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -816,11 +840,11 @@
         <v>479.05999999999995</v>
       </c>
       <c r="E21">
-        <v>399.17599999999999</v>
+        <v>388.245</v>
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>79.883999999999958</v>
+        <v>90.814999999999941</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -838,11 +862,11 @@
         <v>1217.45</v>
       </c>
       <c r="E22">
-        <v>1218.8699999999999</v>
+        <v>1191.9000000000001</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>-1.4199999999998454</v>
+        <v>25.549999999999955</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -860,11 +884,11 @@
         <v>1610.8000000000002</v>
       </c>
       <c r="E23">
-        <v>1282.25</v>
+        <v>1253.6199999999999</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>328.55000000000018</v>
+        <v>357.18000000000029</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -882,11 +906,11 @@
         <v>191.75</v>
       </c>
       <c r="E24">
-        <v>217.113</v>
+        <v>217.553</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
-        <v>-25.363</v>
+        <v>-25.802999999999997</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -904,11 +928,11 @@
         <v>200.81999999999994</v>
       </c>
       <c r="E25">
-        <v>215.84700000000001</v>
+        <v>218.43</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>-15.027000000000072</v>
+        <v>-17.61000000000007</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -926,11 +950,11 @@
         <v>177.72000000000003</v>
       </c>
       <c r="E26">
-        <v>483.57299999999998</v>
+        <v>229.67099999999999</v>
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
-        <v>-305.85299999999995</v>
+        <v>-51.950999999999965</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -948,11 +972,11 @@
         <v>606.45000000000005</v>
       </c>
       <c r="E27">
-        <v>483.57299999999998</v>
+        <v>494.11700000000002</v>
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
-        <v>122.87700000000007</v>
+        <v>112.33300000000003</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -970,28 +994,46 @@
         <v>617.28</v>
       </c>
       <c r="E28">
-        <v>545.84299999999996</v>
+        <v>514.90099999999995</v>
       </c>
       <c r="F28">
         <f t="shared" si="1"/>
-        <v>71.437000000000012</v>
+        <v>102.37900000000002</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="1" t="s">
         <v>3</v>
       </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="1"/>
     </row>
   </sheetData>
   <sortState ref="B1:B28">
     <sortCondition ref="B28"/>
   </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="D30:E30"/>
+  </mergeCells>
   <conditionalFormatting sqref="F1:F28">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
@@ -1001,5 +1043,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test_hpso_vs_hpsov2.xlsx
+++ b/test_hpso_vs_hpsov2.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea\Desktop\hybrid_PSO\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20610" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
-    <t>/</t>
-  </si>
-  <si>
     <t>HPSO</t>
   </si>
   <si>
@@ -33,10 +35,13 @@
     <t>delta</t>
   </si>
   <si>
-    <t>ris. normalizzati</t>
+    <t>function#</t>
   </si>
   <si>
-    <t>function#</t>
+    <t>HPSOv3</t>
+  </si>
+  <si>
+    <t>PSO</t>
   </si>
 </sst>
 </file>
@@ -91,7 +96,2837 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="285">
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4ECBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -114,6 +2949,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFD4ECBA"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -380,7 +3220,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -388,659 +3228,901 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1">
-        <v>-1400</v>
+        <v>1140.9380000000001</v>
       </c>
       <c r="C1">
-        <v>-259.06200000000001</v>
+        <v>112.254</v>
       </c>
       <c r="D1">
-        <f t="shared" ref="D1:D28" si="0">C1-B1</f>
+        <f>B1-C1</f>
+        <v>1028.6840000000002</v>
+      </c>
+      <c r="J1">
         <v>1140.9380000000001</v>
       </c>
-      <c r="E1">
+      <c r="K1">
         <v>112.254</v>
       </c>
-      <c r="F1">
-        <f>D1-E1</f>
-        <v>1028.6840000000002</v>
+      <c r="L1" s="3">
+        <v>8.2041499999999995E-29</v>
+      </c>
+      <c r="M1">
+        <v>492.40699999999998</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>-1300</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E2">
+      <c r="C2">
         <v>976231</v>
       </c>
+      <c r="K2">
+        <v>976231</v>
+      </c>
+      <c r="L2" s="3">
+        <v>20797.5</v>
+      </c>
+      <c r="M2">
+        <v>2755490</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>-1200</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="C3" s="3">
         <v>148888000</v>
       </c>
+      <c r="K3">
+        <v>148888000</v>
+      </c>
+      <c r="L3" s="3">
+        <v>2913720000</v>
+      </c>
+      <c r="M3">
+        <v>1943580000</v>
+      </c>
+      <c r="T3" s="3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>-1100</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E4">
+      <c r="C4">
         <v>1487.67</v>
       </c>
+      <c r="K4">
+        <v>1487.67</v>
+      </c>
+      <c r="L4" s="3">
+        <v>4425.09</v>
+      </c>
+      <c r="M4">
+        <v>71.175600000000003</v>
+      </c>
+      <c r="T4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>-1000</v>
+        <v>156.34199999999998</v>
       </c>
       <c r="C5">
-        <v>-843.65800000000002</v>
+        <v>49.576000000000001</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
+        <f>B5-C5</f>
+        <v>106.76599999999999</v>
+      </c>
+      <c r="J5">
         <v>156.34199999999998</v>
       </c>
-      <c r="E5">
+      <c r="K5">
         <v>49.576000000000001</v>
       </c>
-      <c r="F5">
-        <f t="shared" ref="F5:F28" si="1">D5-E5</f>
-        <v>106.76599999999999</v>
+      <c r="L5" s="3">
+        <v>4.5465200000000001E-29</v>
+      </c>
+      <c r="M5">
+        <v>290.29399999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>-900</v>
+        <v>120.76599999999996</v>
       </c>
       <c r="C6">
-        <v>-779.23400000000004</v>
+        <v>18.627500000000001</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
+        <f>B6-C6</f>
+        <v>102.13849999999996</v>
+      </c>
+      <c r="J6">
         <v>120.76599999999996</v>
       </c>
-      <c r="E6">
+      <c r="K6">
         <v>18.627500000000001</v>
       </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
-        <v>102.13849999999996</v>
+      <c r="L6" s="3">
+        <v>6.37479</v>
+      </c>
+      <c r="M6">
+        <v>72.413499999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>-800</v>
+        <v>75.071000000000026</v>
       </c>
       <c r="C7">
-        <v>-724.92899999999997</v>
+        <v>26.047699999999999</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
+        <f>B7-C7</f>
+        <v>49.023300000000027</v>
+      </c>
+      <c r="J7">
         <v>75.071000000000026</v>
       </c>
-      <c r="E7">
+      <c r="K7">
         <v>26.047699999999999</v>
       </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
-        <v>49.023300000000027</v>
+      <c r="L7" s="3">
+        <v>78.623800000000003</v>
+      </c>
+      <c r="M7">
+        <v>59.737200000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
       <c r="B8">
-        <v>-700</v>
+        <v>20.26400000000001</v>
       </c>
       <c r="C8">
-        <v>-679.73599999999999</v>
+        <v>20.293500000000002</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
+        <f>B8-C8</f>
+        <v>-2.9499999999991644E-2</v>
+      </c>
+      <c r="J8">
         <v>20.26400000000001</v>
       </c>
-      <c r="E8">
+      <c r="K8">
         <v>20.293500000000002</v>
       </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
-        <v>-2.9499999999991644E-2</v>
+      <c r="L8" s="3">
+        <v>20.2927</v>
+      </c>
+      <c r="M8">
+        <v>20.248899999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
       <c r="B9">
-        <v>-600</v>
+        <v>7.7089999999999463</v>
       </c>
       <c r="C9">
-        <v>-592.29100000000005</v>
+        <v>4.9602700000000004</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
+        <f>B9-C9</f>
+        <v>2.7487299999999459</v>
+      </c>
+      <c r="J9">
         <v>7.7089999999999463</v>
       </c>
-      <c r="E9">
+      <c r="K9">
         <v>4.9602700000000004</v>
       </c>
-      <c r="F9">
-        <f t="shared" si="1"/>
-        <v>2.7487299999999459</v>
-      </c>
-      <c r="J9" s="3"/>
+      <c r="L9" s="3">
+        <v>5.0309299999999997</v>
+      </c>
+      <c r="M9">
+        <v>3.72845</v>
+      </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
       <c r="B10">
-        <v>-500</v>
+        <v>192.26499999999999</v>
       </c>
       <c r="C10">
-        <v>-307.73500000000001</v>
+        <v>14.639099999999999</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f>B10-C10</f>
+        <v>177.6259</v>
+      </c>
+      <c r="J10">
         <v>192.26499999999999</v>
       </c>
-      <c r="E10">
+      <c r="K10">
         <v>14.639099999999999</v>
       </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
-        <v>177.6259</v>
+      <c r="L10" s="3">
+        <v>0.70061300000000004</v>
+      </c>
+      <c r="M10">
+        <v>157.26900000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
       <c r="B11">
-        <v>-400</v>
+        <v>717.01099999999997</v>
       </c>
       <c r="C11">
-        <v>317.01100000000002</v>
+        <v>34.9313</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
+        <f>B11-C11</f>
+        <v>682.0797</v>
+      </c>
+      <c r="J11">
         <v>717.01099999999997</v>
       </c>
-      <c r="E11">
+      <c r="K11">
         <v>34.9313</v>
       </c>
-      <c r="F11">
-        <f t="shared" si="1"/>
-        <v>682.0797</v>
+      <c r="L11" s="3">
+        <v>21.391500000000001</v>
+      </c>
+      <c r="M11">
+        <v>16.962700000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
       <c r="B12">
-        <v>-300</v>
+        <v>59.347000000000008</v>
       </c>
       <c r="C12">
-        <v>-240.65299999999999</v>
+        <v>35.053600000000003</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
+        <f>B12-C12</f>
+        <v>24.293400000000005</v>
+      </c>
+      <c r="J12">
         <v>59.347000000000008</v>
       </c>
-      <c r="E12">
+      <c r="K12">
         <v>35.053600000000003</v>
       </c>
-      <c r="F12">
-        <f t="shared" si="1"/>
-        <v>24.293400000000005</v>
+      <c r="L12" s="3">
+        <v>29.9482</v>
+      </c>
+      <c r="M12">
+        <v>37.081600000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
       <c r="B13">
-        <v>-200</v>
+        <v>53.957999999999998</v>
       </c>
       <c r="C13">
-        <v>-146.042</v>
+        <v>36.295900000000003</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
+        <f>B13-C13</f>
+        <v>17.662099999999995</v>
+      </c>
+      <c r="J13">
         <v>53.957999999999998</v>
       </c>
-      <c r="E13">
+      <c r="K13">
         <v>36.295900000000003</v>
       </c>
-      <c r="F13">
-        <f t="shared" si="1"/>
-        <v>17.662099999999995</v>
+      <c r="L13" s="3">
+        <v>40.7117</v>
+      </c>
+      <c r="M13">
+        <v>39.951799999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
       <c r="B14">
-        <v>-100</v>
+        <v>1046.008</v>
       </c>
       <c r="C14">
-        <v>946.00800000000004</v>
+        <v>1212.95</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
+        <f>B14-C14</f>
+        <v>-166.94200000000001</v>
+      </c>
+      <c r="J14">
         <v>1046.008</v>
       </c>
-      <c r="E14">
+      <c r="K14">
         <v>1212.95</v>
       </c>
-      <c r="F14">
-        <f t="shared" si="1"/>
-        <v>-166.94200000000001</v>
+      <c r="L14" s="3">
+        <v>506.62099999999998</v>
+      </c>
+      <c r="M14">
+        <v>545.20799999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
       <c r="B15">
-        <v>100</v>
+        <v>1119.8699999999999</v>
       </c>
       <c r="C15">
-        <v>1219.8699999999999</v>
+        <v>1215.51</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
+        <f>B15-C15</f>
+        <v>-95.6400000000001</v>
+      </c>
+      <c r="J15">
         <v>1119.8699999999999</v>
       </c>
-      <c r="E15">
+      <c r="K15">
         <v>1215.51</v>
       </c>
-      <c r="F15">
-        <f t="shared" si="1"/>
-        <v>-95.6400000000001</v>
+      <c r="L15" s="3">
+        <v>862.27599999999995</v>
+      </c>
+      <c r="M15">
+        <v>996.60199999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
       <c r="B16">
-        <v>200</v>
+        <v>0.71399999999999864</v>
       </c>
       <c r="C16">
-        <v>200.714</v>
+        <v>1.06968</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
+        <f>B16-C16</f>
+        <v>-0.35568000000000133</v>
+      </c>
+      <c r="J16">
         <v>0.71399999999999864</v>
       </c>
-      <c r="E16">
+      <c r="K16">
         <v>1.06968</v>
       </c>
-      <c r="F16">
-        <f t="shared" si="1"/>
-        <v>-0.35568000000000133</v>
+      <c r="L16" s="3">
+        <v>0.40991300000000003</v>
+      </c>
+      <c r="M16">
+        <v>0.39853499999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
       <c r="B17">
-        <v>300</v>
+        <v>106.55799999999999</v>
       </c>
       <c r="C17">
-        <v>406.55799999999999</v>
+        <v>55.397300000000001</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
+        <f>B17-C17</f>
+        <v>51.160699999999991</v>
+      </c>
+      <c r="J17">
         <v>106.55799999999999</v>
       </c>
-      <c r="E17">
+      <c r="K17">
         <v>55.397300000000001</v>
       </c>
-      <c r="F17">
-        <f t="shared" si="1"/>
-        <v>51.160699999999991</v>
+      <c r="L17" s="3">
+        <v>21.309699999999999</v>
+      </c>
+      <c r="M17">
+        <v>15.3856</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
       <c r="B18">
-        <v>400</v>
+        <v>130.66200000000003</v>
       </c>
       <c r="C18">
-        <v>530.66200000000003</v>
+        <v>60.837899999999998</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
+        <f>B18-C18</f>
+        <v>69.824100000000044</v>
+      </c>
+      <c r="J18">
         <v>130.66200000000003</v>
       </c>
-      <c r="E18">
+      <c r="K18">
         <v>60.837899999999998</v>
       </c>
-      <c r="F18">
-        <f t="shared" si="1"/>
-        <v>69.824100000000044</v>
+      <c r="L18" s="3">
+        <v>25.486799999999999</v>
+      </c>
+      <c r="M18">
+        <v>25.9114</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19</v>
       </c>
       <c r="B19">
-        <v>500</v>
+        <v>41.936000000000035</v>
       </c>
       <c r="C19">
-        <v>541.93600000000004</v>
+        <v>4.5438999999999998</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
+        <f>B19-C19</f>
+        <v>37.392100000000035</v>
+      </c>
+      <c r="J19">
         <v>41.936000000000035</v>
       </c>
-      <c r="E19">
+      <c r="K19">
         <v>4.5438999999999998</v>
       </c>
-      <c r="F19">
-        <f t="shared" si="1"/>
-        <v>37.392100000000035</v>
+      <c r="L19" s="3">
+        <v>0.93161099999999997</v>
+      </c>
+      <c r="M19">
+        <v>0.82799</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
       <c r="B20">
-        <v>600</v>
+        <v>3.8569999999999709</v>
       </c>
       <c r="C20">
-        <v>603.85699999999997</v>
+        <v>2.93919</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
+        <f>B20-C20</f>
+        <v>0.91780999999997093</v>
+      </c>
+      <c r="J20">
         <v>3.8569999999999709</v>
       </c>
-      <c r="E20">
+      <c r="K20">
         <v>2.93919</v>
       </c>
-      <c r="F20">
-        <f t="shared" si="1"/>
-        <v>0.91780999999997093</v>
+      <c r="L20" s="3">
+        <v>3.44821</v>
+      </c>
+      <c r="M20">
+        <v>3.1748400000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>21</v>
       </c>
       <c r="B21">
-        <v>700</v>
+        <v>479.05999999999995</v>
       </c>
       <c r="C21">
-        <v>1179.06</v>
+        <v>388.245</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
+        <f>B21-C21</f>
+        <v>90.814999999999941</v>
+      </c>
+      <c r="J21">
         <v>479.05999999999995</v>
       </c>
-      <c r="E21">
+      <c r="K21">
         <v>388.245</v>
       </c>
-      <c r="F21">
-        <f t="shared" si="1"/>
-        <v>90.814999999999941</v>
+      <c r="L21" s="3">
+        <v>380.17399999999998</v>
+      </c>
+      <c r="M21">
+        <v>370.17399999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>22</v>
       </c>
       <c r="B22">
-        <v>800</v>
+        <v>1217.45</v>
       </c>
       <c r="C22">
-        <v>2017.45</v>
+        <v>1191.9000000000001</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
+        <f>B22-C22</f>
+        <v>25.549999999999955</v>
+      </c>
+      <c r="J22">
         <v>1217.45</v>
       </c>
-      <c r="E22">
+      <c r="K22">
         <v>1191.9000000000001</v>
       </c>
-      <c r="F22">
-        <f t="shared" si="1"/>
-        <v>25.549999999999955</v>
+      <c r="L22" s="3">
+        <v>715.28300000000002</v>
+      </c>
+      <c r="M22">
+        <v>586.15599999999995</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>23</v>
       </c>
       <c r="B23">
-        <v>900</v>
+        <v>1610.8000000000002</v>
       </c>
       <c r="C23">
-        <v>2510.8000000000002</v>
+        <v>1253.6199999999999</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
+        <f>B23-C23</f>
+        <v>357.18000000000029</v>
+      </c>
+      <c r="J23">
         <v>1610.8000000000002</v>
       </c>
-      <c r="E23">
+      <c r="K23">
         <v>1253.6199999999999</v>
       </c>
-      <c r="F23">
-        <f t="shared" si="1"/>
-        <v>357.18000000000029</v>
+      <c r="L23" s="3">
+        <v>1398.3</v>
+      </c>
+      <c r="M23">
+        <v>1233.45</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24</v>
       </c>
       <c r="B24">
-        <v>1000</v>
+        <v>191.75</v>
       </c>
       <c r="C24">
-        <v>1191.75</v>
+        <v>217.553</v>
       </c>
       <c r="D24">
-        <f t="shared" si="0"/>
+        <f>B24-C24</f>
+        <v>-25.802999999999997</v>
+      </c>
+      <c r="J24">
         <v>191.75</v>
       </c>
-      <c r="E24">
+      <c r="K24">
         <v>217.553</v>
       </c>
-      <c r="F24">
-        <f t="shared" si="1"/>
-        <v>-25.802999999999997</v>
+      <c r="L24" s="3">
+        <v>221.68299999999999</v>
+      </c>
+      <c r="M24">
+        <v>222.084</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>25</v>
       </c>
       <c r="B25">
-        <v>1100</v>
+        <v>200.81999999999994</v>
       </c>
       <c r="C25">
-        <v>1300.82</v>
+        <v>218.43</v>
       </c>
       <c r="D25">
-        <f t="shared" si="0"/>
+        <f>B25-C25</f>
+        <v>-17.61000000000007</v>
+      </c>
+      <c r="J25">
         <v>200.81999999999994</v>
       </c>
-      <c r="E25">
+      <c r="K25">
         <v>218.43</v>
       </c>
-      <c r="F25">
-        <f t="shared" si="1"/>
-        <v>-17.61000000000007</v>
+      <c r="L25" s="3">
+        <v>218.31899999999999</v>
+      </c>
+      <c r="M25">
+        <v>223.434</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>26</v>
       </c>
       <c r="B26">
-        <v>1200</v>
+        <v>177.72000000000003</v>
       </c>
       <c r="C26">
-        <v>1377.72</v>
+        <v>229.67099999999999</v>
       </c>
       <c r="D26">
-        <f t="shared" si="0"/>
+        <f>B26-C26</f>
+        <v>-51.950999999999965</v>
+      </c>
+      <c r="J26">
         <v>177.72000000000003</v>
       </c>
-      <c r="E26">
+      <c r="K26">
         <v>229.67099999999999</v>
       </c>
-      <c r="F26">
-        <f t="shared" si="1"/>
-        <v>-51.950999999999965</v>
+      <c r="L26" s="3">
+        <v>196.16499999999999</v>
+      </c>
+      <c r="M26">
+        <v>249.327</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>27</v>
       </c>
       <c r="B27">
-        <v>1300</v>
+        <v>606.45000000000005</v>
       </c>
       <c r="C27">
-        <v>1906.45</v>
+        <v>494.11700000000002</v>
       </c>
       <c r="D27">
-        <f t="shared" si="0"/>
+        <f>B27-C27</f>
+        <v>112.33300000000003</v>
+      </c>
+      <c r="J27">
         <v>606.45000000000005</v>
       </c>
-      <c r="E27">
+      <c r="K27">
         <v>494.11700000000002</v>
       </c>
-      <c r="F27">
-        <f t="shared" si="1"/>
-        <v>112.33300000000003</v>
+      <c r="L27" s="3">
+        <v>539.63</v>
+      </c>
+      <c r="M27">
+        <v>612.16200000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>28</v>
       </c>
       <c r="B28">
-        <v>1400</v>
+        <v>617.28</v>
       </c>
       <c r="C28">
-        <v>2017.28</v>
+        <v>514.90099999999995</v>
       </c>
       <c r="D28">
-        <f t="shared" si="0"/>
+        <f>B28-C28</f>
+        <v>102.37900000000002</v>
+      </c>
+      <c r="J28">
         <v>617.28</v>
       </c>
-      <c r="E28">
+      <c r="K28">
         <v>514.90099999999995</v>
       </c>
-      <c r="F28">
-        <f t="shared" si="1"/>
-        <v>102.37900000000002</v>
+      <c r="L28" s="3">
+        <v>386.16300000000001</v>
+      </c>
+      <c r="M28">
+        <v>502.73399999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="1"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="1"/>
     </row>
   </sheetData>
   <sortState ref="B1:B28">
     <sortCondition ref="B28"/>
   </sortState>
-  <mergeCells count="1">
-    <mergeCell ref="D30:E30"/>
-  </mergeCells>
-  <conditionalFormatting sqref="F1:F28">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="D1:D28">
+    <cfRule type="cellIs" dxfId="235" priority="84" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="234" priority="85" operator="lessThan">
       <formula>0</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:M1">
+    <cfRule type="top10" dxfId="55" priority="55" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="54" priority="83" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:M2">
+    <cfRule type="top10" dxfId="53" priority="53" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="52" priority="54" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:M3">
+    <cfRule type="top10" dxfId="51" priority="51" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="50" priority="52" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:M4">
+    <cfRule type="top10" dxfId="49" priority="49" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="48" priority="50" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:M5">
+    <cfRule type="top10" dxfId="47" priority="47" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="46" priority="48" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6:M6">
+    <cfRule type="top10" dxfId="45" priority="45" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="44" priority="46" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7:M7">
+    <cfRule type="top10" dxfId="43" priority="43" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="42" priority="44" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8:M8">
+    <cfRule type="top10" dxfId="41" priority="41" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="40" priority="42" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9:M9">
+    <cfRule type="top10" dxfId="39" priority="39" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="38" priority="40" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10:M10">
+    <cfRule type="top10" dxfId="37" priority="37" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="36" priority="38" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11:M11">
+    <cfRule type="top10" dxfId="35" priority="35" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="34" priority="36" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12:M12">
+    <cfRule type="top10" dxfId="33" priority="33" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="32" priority="34" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13:M13">
+    <cfRule type="top10" dxfId="31" priority="31" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="30" priority="32" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14:M14">
+    <cfRule type="top10" dxfId="29" priority="29" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="28" priority="30" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15:M15">
+    <cfRule type="top10" dxfId="27" priority="27" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="26" priority="28" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16:M16">
+    <cfRule type="top10" dxfId="25" priority="25" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="24" priority="26" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17:M17">
+    <cfRule type="top10" dxfId="23" priority="23" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="22" priority="24" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:M18">
+    <cfRule type="top10" dxfId="21" priority="21" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="20" priority="22" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19:M19">
+    <cfRule type="top10" dxfId="19" priority="19" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="18" priority="20" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20:M20">
+    <cfRule type="top10" dxfId="17" priority="17" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="16" priority="18" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21:M21">
+    <cfRule type="top10" dxfId="15" priority="15" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="14" priority="16" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22:M22">
+    <cfRule type="top10" dxfId="13" priority="13" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="12" priority="14" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23:M23">
+    <cfRule type="top10" dxfId="11" priority="11" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="10" priority="12" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J24:M24">
+    <cfRule type="top10" dxfId="9" priority="9" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="8" priority="10" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25:M25">
+    <cfRule type="top10" dxfId="7" priority="7" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="6" priority="8" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J26:M26">
+    <cfRule type="top10" dxfId="5" priority="5" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="4" priority="6" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27:M27">
+    <cfRule type="top10" dxfId="3" priority="3" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="2" priority="4" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28:M28">
+    <cfRule type="top10" dxfId="1" priority="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="0" priority="2" bottom="1" rank="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
